--- a/biology/Zoologie/Calao_coiffé/Calao_coiffé.xlsx
+++ b/biology/Zoologie/Calao_coiffé/Calao_coiffé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_coiff%C3%A9</t>
+          <t>Calao_coiffé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berenicornis comatus
 Le Calao coiffé (Berenicornis comatus) est une espèce d'oiseau de la famille des Bucerotidae, vivant en Asie du Sud-Est. C'est la seule espèce du genre Berenicornis.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calao_coiff%C3%A9</t>
+          <t>Calao_coiffé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur la Birmanie, la Thaïlande, la Malaisie, Brunei et l'Indonésie.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calao_coiff%C3%A9</t>
+          <t>Calao_coiffé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les forêts tropicales humides de basse et moyenne altitude. Il est menacé par le déboisement.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calao_coiff%C3%A9</t>
+          <t>Calao_coiffé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un Calao de grande taille (83 à 102 cm de long ; 1,3 à 1,5 kg). Le plumage est noir et blanc, les lores nus et bleu sombre.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calao_coiff%C3%A9</t>
+          <t>Calao_coiffé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se tient souvent à terre, vol silencieux. Il se nourrit de fruits et de petits animaux (mammifères, oiseaux et lézards de petite taille).
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Calao_coiff%C3%A9</t>
+          <t>Calao_coiffé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La ponte comporte deux œufs blancs. La femelle qui couve obstrue l'entrée de son nid avec de la fiente, des débris et de la boue ; le mâle la nourrit à travers une fente étroite.
 Pendant la période de couvaison et d'élevage des petits, la femelle mue presque totalement. Elle quitte le nid en brisant le « mur » lorsque les oisillons sont aptes au vol.
